--- a/m1/unidad3/Practicas/20191108/EjExcAva-Pra3.xlsx
+++ b/m1/unidad3/Practicas/20191108/EjExcAva-Pra3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Documents\POO\m1\unidad3\Practicas\20191108\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="11580" windowHeight="5775" tabRatio="522"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="522"/>
   </bookViews>
   <sheets>
     <sheet name="ARTICULOS" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,13 @@
     <sheet name="PROCEDENCIA" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ARTICULOS!$A$3:$J$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ARTICULOS!$A$3:$O$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TABLAS!$E$3:$H$18</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">ARTICULOS!$D$80</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">ARTICULOS!$D$77:$D$78</definedName>
+    <definedName name="PAISESORIGEN">PROCEDENCIA!$A$4:$C$6</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -491,14 +492,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,7 +782,7 @@
   <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -871,6 +871,14 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4" t="str">
+        <f>VLOOKUP(E4,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G4">
+        <f>HLOOKUP(H4,TABLAS!$K$3:$N$4,2)</f>
+        <v>2</v>
+      </c>
       <c r="H4" t="s">
         <v>6</v>
       </c>
@@ -880,7 +888,26 @@
       <c r="J4">
         <v>30</v>
       </c>
-      <c r="O4" s="6"/>
+      <c r="K4">
+        <f>I4*VLOOKUP(D4,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.12</v>
+      </c>
+      <c r="L4" t="str">
+        <f>VLOOKUP(VLOOKUP(D4,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M4">
+        <f>I4-(I4*VLOOKUP(VLOOKUP(D4,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>11.04</v>
+      </c>
+      <c r="N4">
+        <f>IF(VLOOKUP(D4,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I4*VLOOKUP(VLOOKUP(D4,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="O4">
+        <f>IF(OR(VLOOKUP(D4,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D4,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D4,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D4,TABLAS!$E$4:$H$18,2,FALSE)="D"),I4*VLOOKUP(D4,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -898,6 +925,14 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5" t="str">
+        <f>VLOOKUP(E5,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G5">
+        <f>HLOOKUP(H5,TABLAS!$K$3:$N$4,2)</f>
+        <v>2</v>
+      </c>
       <c r="H5" t="s">
         <v>6</v>
       </c>
@@ -907,7 +942,26 @@
       <c r="J5">
         <v>40</v>
       </c>
-      <c r="O5" s="6"/>
+      <c r="K5">
+        <f>I5*VLOOKUP(D5,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L5" t="str">
+        <f>VLOOKUP(VLOOKUP(D5,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M5">
+        <f>I5-(I5*VLOOKUP(VLOOKUP(D5,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>12.879999999999999</v>
+      </c>
+      <c r="N5">
+        <f>IF(VLOOKUP(D5,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I5*VLOOKUP(VLOOKUP(D5,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>2.1</v>
+      </c>
+      <c r="O5">
+        <f>IF(OR(VLOOKUP(D5,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D5,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D5,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D5,TABLAS!$E$4:$H$18,2,FALSE)="D"),I5*VLOOKUP(D5,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -925,6 +979,14 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="F6" t="str">
+        <f>VLOOKUP(E6,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G6">
+        <f>HLOOKUP(H6,TABLAS!$K$3:$N$4,2)</f>
+        <v>2</v>
+      </c>
       <c r="H6" t="s">
         <v>6</v>
       </c>
@@ -934,7 +996,26 @@
       <c r="J6">
         <v>38</v>
       </c>
-      <c r="O6" s="6"/>
+      <c r="K6">
+        <f>I6*VLOOKUP(D6,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.16</v>
+      </c>
+      <c r="L6" t="str">
+        <f>VLOOKUP(VLOOKUP(D6,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M6">
+        <f>I6-(I6*VLOOKUP(VLOOKUP(D6,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>14.72</v>
+      </c>
+      <c r="N6">
+        <f>IF(VLOOKUP(D6,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I6*VLOOKUP(VLOOKUP(D6,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>2.4</v>
+      </c>
+      <c r="O6">
+        <f>IF(OR(VLOOKUP(D6,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D6,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D6,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D6,TABLAS!$E$4:$H$18,2,FALSE)="D"),I6*VLOOKUP(D6,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -952,6 +1033,14 @@
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="F7" t="str">
+        <f>VLOOKUP(E7,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G7">
+        <f>HLOOKUP(H7,TABLAS!$K$3:$N$4,2)</f>
+        <v>2</v>
+      </c>
       <c r="H7" t="s">
         <v>6</v>
       </c>
@@ -961,7 +1050,26 @@
       <c r="J7">
         <v>55</v>
       </c>
-      <c r="O7" s="6"/>
+      <c r="K7">
+        <f>I7*VLOOKUP(D7,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.15</v>
+      </c>
+      <c r="L7" t="str">
+        <f>VLOOKUP(VLOOKUP(D7,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M7">
+        <f>I7-(I7*VLOOKUP(VLOOKUP(D7,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>13.8</v>
+      </c>
+      <c r="N7">
+        <f>IF(VLOOKUP(D7,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I7*VLOOKUP(VLOOKUP(D7,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>2.25</v>
+      </c>
+      <c r="O7">
+        <f>IF(OR(VLOOKUP(D7,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D7,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D7,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D7,TABLAS!$E$4:$H$18,2,FALSE)="D"),I7*VLOOKUP(D7,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -979,6 +1087,14 @@
       <c r="E8">
         <v>1</v>
       </c>
+      <c r="F8" t="str">
+        <f>VLOOKUP(E8,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G8">
+        <f>HLOOKUP(H8,TABLAS!$K$3:$N$4,2)</f>
+        <v>2</v>
+      </c>
       <c r="H8" t="s">
         <v>6</v>
       </c>
@@ -988,7 +1104,26 @@
       <c r="J8">
         <v>41</v>
       </c>
-      <c r="O8" s="6"/>
+      <c r="K8">
+        <f>I8*VLOOKUP(D8,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.17</v>
+      </c>
+      <c r="L8" t="str">
+        <f>VLOOKUP(VLOOKUP(D8,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M8">
+        <f>I8-(I8*VLOOKUP(VLOOKUP(D8,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>15.64</v>
+      </c>
+      <c r="N8">
+        <f>IF(VLOOKUP(D8,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I8*VLOOKUP(VLOOKUP(D8,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="O8">
+        <f>IF(OR(VLOOKUP(D8,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D8,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D8,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D8,TABLAS!$E$4:$H$18,2,FALSE)="D"),I8*VLOOKUP(D8,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1006,6 +1141,14 @@
       <c r="E9">
         <v>1</v>
       </c>
+      <c r="F9" t="str">
+        <f>VLOOKUP(E9,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G9">
+        <f>HLOOKUP(H9,TABLAS!$K$3:$N$4,2)</f>
+        <v>2</v>
+      </c>
       <c r="H9" t="s">
         <v>6</v>
       </c>
@@ -1015,7 +1158,26 @@
       <c r="J9">
         <v>38</v>
       </c>
-      <c r="O9" s="6"/>
+      <c r="K9">
+        <f>I9*VLOOKUP(D9,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.19</v>
+      </c>
+      <c r="L9" t="str">
+        <f>VLOOKUP(VLOOKUP(D9,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M9">
+        <f>I9-(I9*VLOOKUP(VLOOKUP(D9,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>17.48</v>
+      </c>
+      <c r="N9">
+        <f>IF(VLOOKUP(D9,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I9*VLOOKUP(VLOOKUP(D9,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>2.85</v>
+      </c>
+      <c r="O9">
+        <f>IF(OR(VLOOKUP(D9,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D9,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D9,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D9,TABLAS!$E$4:$H$18,2,FALSE)="D"),I9*VLOOKUP(D9,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1033,6 +1195,14 @@
       <c r="E10">
         <v>1</v>
       </c>
+      <c r="F10" t="str">
+        <f>VLOOKUP(E10,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G10">
+        <f>HLOOKUP(H10,TABLAS!$K$3:$N$4,2)</f>
+        <v>1</v>
+      </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
@@ -1042,7 +1212,26 @@
       <c r="J10">
         <v>345</v>
       </c>
-      <c r="O10" s="6"/>
+      <c r="K10">
+        <f>I10*VLOOKUP(D10,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="L10" t="str">
+        <f>VLOOKUP(VLOOKUP(D10,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M10">
+        <f>I10-(I10*VLOOKUP(VLOOKUP(D10,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>79.05</v>
+      </c>
+      <c r="N10">
+        <f>IF(VLOOKUP(D10,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I10*VLOOKUP(VLOOKUP(D10,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>IF(OR(VLOOKUP(D10,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D10,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D10,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D10,TABLAS!$E$4:$H$18,2,FALSE)="D"),I10*VLOOKUP(D10,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1060,6 +1249,14 @@
       <c r="E11">
         <v>1</v>
       </c>
+      <c r="F11" t="str">
+        <f>VLOOKUP(E11,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G11">
+        <f>HLOOKUP(H11,TABLAS!$K$3:$N$4,2)</f>
+        <v>1</v>
+      </c>
       <c r="H11" t="s">
         <v>12</v>
       </c>
@@ -1069,7 +1266,26 @@
       <c r="J11">
         <v>283</v>
       </c>
-      <c r="O11" s="6"/>
+      <c r="K11">
+        <f>I11*VLOOKUP(D11,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="L11" t="str">
+        <f>VLOOKUP(VLOOKUP(D11,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M11">
+        <f>I11-(I11*VLOOKUP(VLOOKUP(D11,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>81.375</v>
+      </c>
+      <c r="N11">
+        <f>IF(VLOOKUP(D11,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I11*VLOOKUP(VLOOKUP(D11,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>IF(OR(VLOOKUP(D11,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D11,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D11,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D11,TABLAS!$E$4:$H$18,2,FALSE)="D"),I11*VLOOKUP(D11,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1087,6 +1303,14 @@
       <c r="E12">
         <v>1</v>
       </c>
+      <c r="F12" t="str">
+        <f>VLOOKUP(E12,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G12">
+        <f>HLOOKUP(H12,TABLAS!$K$3:$N$4,2)</f>
+        <v>1</v>
+      </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
@@ -1096,7 +1320,26 @@
       <c r="J12">
         <v>148</v>
       </c>
-      <c r="O12" s="6"/>
+      <c r="K12">
+        <f>I12*VLOOKUP(D12,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>2.64</v>
+      </c>
+      <c r="L12" t="str">
+        <f>VLOOKUP(VLOOKUP(D12,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M12">
+        <f>I12-(I12*VLOOKUP(VLOOKUP(D12,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>61.38</v>
+      </c>
+      <c r="N12">
+        <f>IF(VLOOKUP(D12,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I12*VLOOKUP(VLOOKUP(D12,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>IF(OR(VLOOKUP(D12,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D12,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D12,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D12,TABLAS!$E$4:$H$18,2,FALSE)="D"),I12*VLOOKUP(D12,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1114,6 +1357,14 @@
       <c r="E13">
         <v>1</v>
       </c>
+      <c r="F13" t="str">
+        <f>VLOOKUP(E13,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G13">
+        <f>HLOOKUP(H13,TABLAS!$K$3:$N$4,2)</f>
+        <v>1</v>
+      </c>
       <c r="H13" t="s">
         <v>12</v>
       </c>
@@ -1123,7 +1374,26 @@
       <c r="J13">
         <v>108</v>
       </c>
-      <c r="O13" s="6"/>
+      <c r="K13">
+        <f>I13*VLOOKUP(D13,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>1.9649999999999999</v>
+      </c>
+      <c r="L13" t="str">
+        <f>VLOOKUP(VLOOKUP(D13,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M13">
+        <f>I13-(I13*VLOOKUP(VLOOKUP(D13,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>60.914999999999999</v>
+      </c>
+      <c r="N13">
+        <f>IF(VLOOKUP(D13,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I13*VLOOKUP(VLOOKUP(D13,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>IF(OR(VLOOKUP(D13,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D13,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D13,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D13,TABLAS!$E$4:$H$18,2,FALSE)="D"),I13*VLOOKUP(D13,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1141,6 +1411,14 @@
       <c r="E14">
         <v>1</v>
       </c>
+      <c r="F14" t="str">
+        <f>VLOOKUP(E14,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G14">
+        <f>HLOOKUP(H14,TABLAS!$K$3:$N$4,2)</f>
+        <v>1</v>
+      </c>
       <c r="H14" t="s">
         <v>12</v>
       </c>
@@ -1150,7 +1428,26 @@
       <c r="J14">
         <v>56</v>
       </c>
-      <c r="O14" s="6"/>
+      <c r="K14">
+        <f>I14*VLOOKUP(D14,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>1.76</v>
+      </c>
+      <c r="L14" t="str">
+        <f>VLOOKUP(VLOOKUP(D14,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M14">
+        <f>I14-(I14*VLOOKUP(VLOOKUP(D14,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>40.92</v>
+      </c>
+      <c r="N14">
+        <f>IF(VLOOKUP(D14,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I14*VLOOKUP(VLOOKUP(D14,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>IF(OR(VLOOKUP(D14,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D14,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D14,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D14,TABLAS!$E$4:$H$18,2,FALSE)="D"),I14*VLOOKUP(D14,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1168,6 +1465,14 @@
       <c r="E15">
         <v>1</v>
       </c>
+      <c r="F15" t="str">
+        <f>VLOOKUP(E15,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G15">
+        <f>HLOOKUP(H15,TABLAS!$K$3:$N$4,2)</f>
+        <v>1</v>
+      </c>
       <c r="H15" t="s">
         <v>12</v>
       </c>
@@ -1177,7 +1482,26 @@
       <c r="J15">
         <v>43</v>
       </c>
-      <c r="O15" s="6"/>
+      <c r="K15">
+        <f>I15*VLOOKUP(D15,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>1.29</v>
+      </c>
+      <c r="L15" t="str">
+        <f>VLOOKUP(VLOOKUP(D15,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M15">
+        <f>I15-(I15*VLOOKUP(VLOOKUP(D15,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>39.99</v>
+      </c>
+      <c r="N15">
+        <f>IF(VLOOKUP(D15,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I15*VLOOKUP(VLOOKUP(D15,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>IF(OR(VLOOKUP(D15,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D15,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D15,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D15,TABLAS!$E$4:$H$18,2,FALSE)="D"),I15*VLOOKUP(D15,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1195,6 +1519,14 @@
       <c r="E16">
         <v>4</v>
       </c>
+      <c r="F16" t="str">
+        <f>VLOOKUP(E16,TABLAS!$A$4:$C$7,2)</f>
+        <v>SANITARIA</v>
+      </c>
+      <c r="G16">
+        <f>HLOOKUP(H16,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H16" t="s">
         <v>1</v>
       </c>
@@ -1204,7 +1536,26 @@
       <c r="J16">
         <v>10</v>
       </c>
-      <c r="O16" s="6"/>
+      <c r="K16">
+        <f>I16*VLOOKUP(D16,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="L16" t="str">
+        <f>VLOOKUP(VLOOKUP(D16,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M16">
+        <f>I16-(I16*VLOOKUP(VLOOKUP(D16,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>14.4</v>
+      </c>
+      <c r="N16">
+        <f>IF(VLOOKUP(D16,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I16*VLOOKUP(VLOOKUP(D16,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>IF(OR(VLOOKUP(D16,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D16,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D16,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D16,TABLAS!$E$4:$H$18,2,FALSE)="D"),I16*VLOOKUP(D16,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -1222,6 +1573,14 @@
       <c r="E17">
         <v>4</v>
       </c>
+      <c r="F17" t="str">
+        <f>VLOOKUP(E17,TABLAS!$A$4:$C$7,2)</f>
+        <v>SANITARIA</v>
+      </c>
+      <c r="G17">
+        <f>HLOOKUP(H17,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H17" t="s">
         <v>1</v>
       </c>
@@ -1231,7 +1590,26 @@
       <c r="J17">
         <v>15</v>
       </c>
-      <c r="O17" s="6"/>
+      <c r="K17">
+        <f>I17*VLOOKUP(D17,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L17" t="str">
+        <f>VLOOKUP(VLOOKUP(D17,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M17">
+        <f>I17-(I17*VLOOKUP(VLOOKUP(D17,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>24</v>
+      </c>
+      <c r="N17">
+        <f>IF(VLOOKUP(D17,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I17*VLOOKUP(VLOOKUP(D17,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f>IF(OR(VLOOKUP(D17,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D17,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D17,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D17,TABLAS!$E$4:$H$18,2,FALSE)="D"),I17*VLOOKUP(D17,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -1249,6 +1627,14 @@
       <c r="E18">
         <v>4</v>
       </c>
+      <c r="F18" t="str">
+        <f>VLOOKUP(E18,TABLAS!$A$4:$C$7,2)</f>
+        <v>SANITARIA</v>
+      </c>
+      <c r="G18">
+        <f>HLOOKUP(H18,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H18" t="s">
         <v>1</v>
       </c>
@@ -1258,7 +1644,26 @@
       <c r="J18">
         <v>12</v>
       </c>
-      <c r="O18" s="6"/>
+      <c r="K18">
+        <f>I18*VLOOKUP(D18,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="L18" t="str">
+        <f>VLOOKUP(VLOOKUP(D18,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M18">
+        <f>I18-(I18*VLOOKUP(VLOOKUP(D18,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>33.6</v>
+      </c>
+      <c r="N18">
+        <f>IF(VLOOKUP(D18,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I18*VLOOKUP(VLOOKUP(D18,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f>IF(OR(VLOOKUP(D18,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D18,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D18,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D18,TABLAS!$E$4:$H$18,2,FALSE)="D"),I18*VLOOKUP(D18,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -1276,6 +1681,14 @@
       <c r="E19">
         <v>3</v>
       </c>
+      <c r="F19" t="str">
+        <f>VLOOKUP(E19,TABLAS!$A$4:$C$7,2)</f>
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G19">
+        <f>HLOOKUP(H19,TABLAS!$K$3:$N$4,2)</f>
+        <v>2</v>
+      </c>
       <c r="H19" t="s">
         <v>6</v>
       </c>
@@ -1285,7 +1698,26 @@
       <c r="J19">
         <v>18</v>
       </c>
-      <c r="O19" s="6"/>
+      <c r="K19">
+        <f>I19*VLOOKUP(D19,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+      <c r="L19" t="str">
+        <f>VLOOKUP(VLOOKUP(D19,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M19">
+        <f>I19-(I19*VLOOKUP(VLOOKUP(D19,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="N19">
+        <f>IF(VLOOKUP(D19,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I19*VLOOKUP(VLOOKUP(D19,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <f>IF(OR(VLOOKUP(D19,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D19,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D19,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D19,TABLAS!$E$4:$H$18,2,FALSE)="D"),I19*VLOOKUP(D19,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -1303,6 +1735,14 @@
       <c r="E20">
         <v>3</v>
       </c>
+      <c r="F20" t="str">
+        <f>VLOOKUP(E20,TABLAS!$A$4:$C$7,2)</f>
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G20">
+        <f>HLOOKUP(H20,TABLAS!$K$3:$N$4,2)</f>
+        <v>2</v>
+      </c>
       <c r="H20" t="s">
         <v>6</v>
       </c>
@@ -1312,7 +1752,26 @@
       <c r="J20">
         <v>14</v>
       </c>
-      <c r="O20" s="6"/>
+      <c r="K20">
+        <f>I20*VLOOKUP(D20,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L20" t="str">
+        <f>VLOOKUP(VLOOKUP(D20,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M20">
+        <f>I20-(I20*VLOOKUP(VLOOKUP(D20,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>23</v>
+      </c>
+      <c r="N20">
+        <f>IF(VLOOKUP(D20,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I20*VLOOKUP(VLOOKUP(D20,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>3.75</v>
+      </c>
+      <c r="O20">
+        <f>IF(OR(VLOOKUP(D20,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D20,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D20,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D20,TABLAS!$E$4:$H$18,2,FALSE)="D"),I20*VLOOKUP(D20,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -1330,6 +1789,14 @@
       <c r="E21">
         <v>3</v>
       </c>
+      <c r="F21" t="str">
+        <f>VLOOKUP(E21,TABLAS!$A$4:$C$7,2)</f>
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G21">
+        <f>HLOOKUP(H21,TABLAS!$K$3:$N$4,2)</f>
+        <v>2</v>
+      </c>
       <c r="H21" t="s">
         <v>6</v>
       </c>
@@ -1339,7 +1806,26 @@
       <c r="J21">
         <v>12</v>
       </c>
-      <c r="O21" s="6"/>
+      <c r="K21">
+        <f>I21*VLOOKUP(D21,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="L21" t="str">
+        <f>VLOOKUP(VLOOKUP(D21,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M21">
+        <f>I21-(I21*VLOOKUP(VLOOKUP(D21,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>27.6</v>
+      </c>
+      <c r="N21">
+        <f>IF(VLOOKUP(D21,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I21*VLOOKUP(VLOOKUP(D21,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>4.5</v>
+      </c>
+      <c r="O21">
+        <f>IF(OR(VLOOKUP(D21,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D21,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D21,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D21,TABLAS!$E$4:$H$18,2,FALSE)="D"),I21*VLOOKUP(D21,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -1357,6 +1843,14 @@
       <c r="E22">
         <v>4</v>
       </c>
+      <c r="F22" t="str">
+        <f>VLOOKUP(E22,TABLAS!$A$4:$C$7,2)</f>
+        <v>SANITARIA</v>
+      </c>
+      <c r="G22">
+        <f>HLOOKUP(H22,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H22" t="s">
         <v>1</v>
       </c>
@@ -1366,7 +1860,26 @@
       <c r="J22">
         <v>18</v>
       </c>
-      <c r="O22" s="6"/>
+      <c r="K22">
+        <f>I22*VLOOKUP(D22,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="L22" t="str">
+        <f>VLOOKUP(VLOOKUP(D22,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M22">
+        <f>I22-(I22*VLOOKUP(VLOOKUP(D22,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>10.68</v>
+      </c>
+      <c r="N22">
+        <f>IF(VLOOKUP(D22,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I22*VLOOKUP(VLOOKUP(D22,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f>IF(OR(VLOOKUP(D22,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D22,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D22,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D22,TABLAS!$E$4:$H$18,2,FALSE)="D"),I22*VLOOKUP(D22,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0.60000000000000009</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -1384,6 +1897,14 @@
       <c r="E23">
         <v>4</v>
       </c>
+      <c r="F23" t="str">
+        <f>VLOOKUP(E23,TABLAS!$A$4:$C$7,2)</f>
+        <v>SANITARIA</v>
+      </c>
+      <c r="G23">
+        <f>HLOOKUP(H23,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H23" t="s">
         <v>1</v>
       </c>
@@ -1393,7 +1914,26 @@
       <c r="J23">
         <v>16</v>
       </c>
-      <c r="O23" s="6"/>
+      <c r="K23">
+        <f>I23*VLOOKUP(D23,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="L23" t="str">
+        <f>VLOOKUP(VLOOKUP(D23,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M23">
+        <f>I23-(I23*VLOOKUP(VLOOKUP(D23,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>12.46</v>
+      </c>
+      <c r="N23">
+        <f>IF(VLOOKUP(D23,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I23*VLOOKUP(VLOOKUP(D23,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f>IF(OR(VLOOKUP(D23,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D23,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D23,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D23,TABLAS!$E$4:$H$18,2,FALSE)="D"),I23*VLOOKUP(D23,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0.70000000000000007</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -1411,6 +1951,14 @@
       <c r="E24">
         <v>4</v>
       </c>
+      <c r="F24" t="str">
+        <f>VLOOKUP(E24,TABLAS!$A$4:$C$7,2)</f>
+        <v>SANITARIA</v>
+      </c>
+      <c r="G24">
+        <f>HLOOKUP(H24,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H24" t="s">
         <v>1</v>
       </c>
@@ -1420,7 +1968,26 @@
       <c r="J24">
         <v>18</v>
       </c>
-      <c r="O24" s="6"/>
+      <c r="K24">
+        <f>I24*VLOOKUP(D24,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="L24" t="str">
+        <f>VLOOKUP(VLOOKUP(D24,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M24">
+        <f>I24-(I24*VLOOKUP(VLOOKUP(D24,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>15.129999999999999</v>
+      </c>
+      <c r="N24">
+        <f>IF(VLOOKUP(D24,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I24*VLOOKUP(VLOOKUP(D24,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f>IF(OR(VLOOKUP(D24,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D24,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D24,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D24,TABLAS!$E$4:$H$18,2,FALSE)="D"),I24*VLOOKUP(D24,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0.85000000000000009</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -1438,6 +2005,14 @@
       <c r="E25">
         <v>4</v>
       </c>
+      <c r="F25" t="str">
+        <f>VLOOKUP(E25,TABLAS!$A$4:$C$7,2)</f>
+        <v>SANITARIA</v>
+      </c>
+      <c r="G25">
+        <f>HLOOKUP(H25,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H25" t="s">
         <v>1</v>
       </c>
@@ -1447,7 +2022,26 @@
       <c r="J25">
         <v>19</v>
       </c>
-      <c r="O25" s="6"/>
+      <c r="K25">
+        <f>I25*VLOOKUP(D25,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="L25" t="str">
+        <f>VLOOKUP(VLOOKUP(D25,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M25">
+        <f>I25-(I25*VLOOKUP(VLOOKUP(D25,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>15.129999999999999</v>
+      </c>
+      <c r="N25">
+        <f>IF(VLOOKUP(D25,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I25*VLOOKUP(VLOOKUP(D25,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f>IF(OR(VLOOKUP(D25,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D25,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D25,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D25,TABLAS!$E$4:$H$18,2,FALSE)="D"),I25*VLOOKUP(D25,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0.85000000000000009</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -1465,6 +2059,14 @@
       <c r="E26">
         <v>4</v>
       </c>
+      <c r="F26" t="str">
+        <f>VLOOKUP(E26,TABLAS!$A$4:$C$7,2)</f>
+        <v>SANITARIA</v>
+      </c>
+      <c r="G26">
+        <f>HLOOKUP(H26,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H26" t="s">
         <v>1</v>
       </c>
@@ -1474,7 +2076,26 @@
       <c r="J26">
         <v>45</v>
       </c>
-      <c r="O26" s="6"/>
+      <c r="K26">
+        <f>I26*VLOOKUP(D26,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>3.75</v>
+      </c>
+      <c r="L26" t="str">
+        <f>VLOOKUP(VLOOKUP(D26,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M26">
+        <f>I26-(I26*VLOOKUP(VLOOKUP(D26,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>66.75</v>
+      </c>
+      <c r="N26">
+        <f>IF(VLOOKUP(D26,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I26*VLOOKUP(VLOOKUP(D26,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f>IF(OR(VLOOKUP(D26,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D26,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D26,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D26,TABLAS!$E$4:$H$18,2,FALSE)="D"),I26*VLOOKUP(D26,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>3.75</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -1492,6 +2113,14 @@
       <c r="E27">
         <v>4</v>
       </c>
+      <c r="F27" t="str">
+        <f>VLOOKUP(E27,TABLAS!$A$4:$C$7,2)</f>
+        <v>SANITARIA</v>
+      </c>
+      <c r="G27">
+        <f>HLOOKUP(H27,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H27" t="s">
         <v>1</v>
       </c>
@@ -1501,7 +2130,26 @@
       <c r="J27">
         <v>38</v>
       </c>
-      <c r="O27" s="6"/>
+      <c r="K27">
+        <f>I27*VLOOKUP(D27,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="L27" t="str">
+        <f>VLOOKUP(VLOOKUP(D27,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M27">
+        <f>I27-(I27*VLOOKUP(VLOOKUP(D27,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>69.42</v>
+      </c>
+      <c r="N27">
+        <f>IF(VLOOKUP(D27,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I27*VLOOKUP(VLOOKUP(D27,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f>IF(OR(VLOOKUP(D27,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D27,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D27,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D27,TABLAS!$E$4:$H$18,2,FALSE)="D"),I27*VLOOKUP(D27,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>3.9000000000000004</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -1519,6 +2167,14 @@
       <c r="E28">
         <v>4</v>
       </c>
+      <c r="F28" t="str">
+        <f>VLOOKUP(E28,TABLAS!$A$4:$C$7,2)</f>
+        <v>SANITARIA</v>
+      </c>
+      <c r="G28">
+        <f>HLOOKUP(H28,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H28" t="s">
         <v>1</v>
       </c>
@@ -1528,7 +2184,26 @@
       <c r="J28">
         <v>29</v>
       </c>
-      <c r="O28" s="6"/>
+      <c r="K28">
+        <f>I28*VLOOKUP(D28,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>4.3</v>
+      </c>
+      <c r="L28" t="str">
+        <f>VLOOKUP(VLOOKUP(D28,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M28">
+        <f>I28-(I28*VLOOKUP(VLOOKUP(D28,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>76.539999999999992</v>
+      </c>
+      <c r="N28">
+        <f>IF(VLOOKUP(D28,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I28*VLOOKUP(VLOOKUP(D28,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f>IF(OR(VLOOKUP(D28,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D28,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D28,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D28,TABLAS!$E$4:$H$18,2,FALSE)="D"),I28*VLOOKUP(D28,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>4.3</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -1546,6 +2221,14 @@
       <c r="E29">
         <v>4</v>
       </c>
+      <c r="F29" t="str">
+        <f>VLOOKUP(E29,TABLAS!$A$4:$C$7,2)</f>
+        <v>SANITARIA</v>
+      </c>
+      <c r="G29">
+        <f>HLOOKUP(H29,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H29" t="s">
         <v>1</v>
       </c>
@@ -1555,7 +2238,26 @@
       <c r="J29">
         <v>31</v>
       </c>
-      <c r="O29" s="6"/>
+      <c r="K29">
+        <f>I29*VLOOKUP(D29,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>4.8500000000000005</v>
+      </c>
+      <c r="L29" t="str">
+        <f>VLOOKUP(VLOOKUP(D29,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M29">
+        <f>I29-(I29*VLOOKUP(VLOOKUP(D29,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>86.33</v>
+      </c>
+      <c r="N29">
+        <f>IF(VLOOKUP(D29,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I29*VLOOKUP(VLOOKUP(D29,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f>IF(OR(VLOOKUP(D29,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D29,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D29,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D29,TABLAS!$E$4:$H$18,2,FALSE)="D"),I29*VLOOKUP(D29,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>4.8500000000000005</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -1573,6 +2275,14 @@
       <c r="E30">
         <v>4</v>
       </c>
+      <c r="F30" t="str">
+        <f>VLOOKUP(E30,TABLAS!$A$4:$C$7,2)</f>
+        <v>SANITARIA</v>
+      </c>
+      <c r="G30">
+        <f>HLOOKUP(H30,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H30" t="s">
         <v>1</v>
       </c>
@@ -1582,7 +2292,26 @@
       <c r="J30">
         <v>8</v>
       </c>
-      <c r="O30" s="6"/>
+      <c r="K30">
+        <f>I30*VLOOKUP(D30,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>9.6</v>
+      </c>
+      <c r="L30" t="str">
+        <f>VLOOKUP(VLOOKUP(D30,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>ARGENTINA</v>
+      </c>
+      <c r="M30">
+        <f>I30-(I30*VLOOKUP(VLOOKUP(D30,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>110.4</v>
+      </c>
+      <c r="N30">
+        <f>IF(VLOOKUP(D30,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I30*VLOOKUP(VLOOKUP(D30,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>12</v>
+      </c>
+      <c r="O30">
+        <f>IF(OR(VLOOKUP(D30,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D30,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D30,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D30,TABLAS!$E$4:$H$18,2,FALSE)="D"),I30*VLOOKUP(D30,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -1600,6 +2329,14 @@
       <c r="E31">
         <v>4</v>
       </c>
+      <c r="F31" t="str">
+        <f>VLOOKUP(E31,TABLAS!$A$4:$C$7,2)</f>
+        <v>SANITARIA</v>
+      </c>
+      <c r="G31">
+        <f>HLOOKUP(H31,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H31" t="s">
         <v>1</v>
       </c>
@@ -1609,7 +2346,26 @@
       <c r="J31">
         <v>6</v>
       </c>
-      <c r="O31" s="6"/>
+      <c r="K31">
+        <f>I31*VLOOKUP(D31,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>7.5600000000000005</v>
+      </c>
+      <c r="L31" t="str">
+        <f>VLOOKUP(VLOOKUP(D31,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>ARGENTINA</v>
+      </c>
+      <c r="M31">
+        <f>I31-(I31*VLOOKUP(VLOOKUP(D31,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>99.36</v>
+      </c>
+      <c r="N31">
+        <f>IF(VLOOKUP(D31,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I31*VLOOKUP(VLOOKUP(D31,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>10.8</v>
+      </c>
+      <c r="O31">
+        <f>IF(OR(VLOOKUP(D31,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D31,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D31,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D31,TABLAS!$E$4:$H$18,2,FALSE)="D"),I31*VLOOKUP(D31,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -1627,6 +2383,14 @@
       <c r="E32">
         <v>4</v>
       </c>
+      <c r="F32" t="str">
+        <f>VLOOKUP(E32,TABLAS!$A$4:$C$7,2)</f>
+        <v>SANITARIA</v>
+      </c>
+      <c r="G32">
+        <f>HLOOKUP(H32,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H32" t="s">
         <v>1</v>
       </c>
@@ -1636,7 +2400,26 @@
       <c r="J32">
         <v>11</v>
       </c>
-      <c r="O32" s="6"/>
+      <c r="K32">
+        <f>I32*VLOOKUP(D32,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>11.6</v>
+      </c>
+      <c r="L32" t="str">
+        <f>VLOOKUP(VLOOKUP(D32,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>ARGENTINA</v>
+      </c>
+      <c r="M32">
+        <f>I32-(I32*VLOOKUP(VLOOKUP(D32,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>133.4</v>
+      </c>
+      <c r="N32">
+        <f>IF(VLOOKUP(D32,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I32*VLOOKUP(VLOOKUP(D32,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>14.5</v>
+      </c>
+      <c r="O32">
+        <f>IF(OR(VLOOKUP(D32,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D32,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D32,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D32,TABLAS!$E$4:$H$18,2,FALSE)="D"),I32*VLOOKUP(D32,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -1654,6 +2437,14 @@
       <c r="E33">
         <v>4</v>
       </c>
+      <c r="F33" t="str">
+        <f>VLOOKUP(E33,TABLAS!$A$4:$C$7,2)</f>
+        <v>SANITARIA</v>
+      </c>
+      <c r="G33">
+        <f>HLOOKUP(H33,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H33" t="s">
         <v>1</v>
       </c>
@@ -1663,7 +2454,26 @@
       <c r="J33">
         <v>21</v>
       </c>
-      <c r="O33" s="6"/>
+      <c r="K33">
+        <f>I33*VLOOKUP(D33,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="L33" t="str">
+        <f>VLOOKUP(VLOOKUP(D33,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>ARGENTINA</v>
+      </c>
+      <c r="M33">
+        <f>I33-(I33*VLOOKUP(VLOOKUP(D33,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>111.32</v>
+      </c>
+      <c r="N33">
+        <f>IF(VLOOKUP(D33,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I33*VLOOKUP(VLOOKUP(D33,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>12.100000000000001</v>
+      </c>
+      <c r="O33">
+        <f>IF(OR(VLOOKUP(D33,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D33,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D33,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D33,TABLAS!$E$4:$H$18,2,FALSE)="D"),I33*VLOOKUP(D33,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -1681,6 +2491,14 @@
       <c r="E34">
         <v>3</v>
       </c>
+      <c r="F34" t="str">
+        <f>VLOOKUP(E34,TABLAS!$A$4:$C$7,2)</f>
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G34">
+        <f>HLOOKUP(H34,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H34" t="s">
         <v>1</v>
       </c>
@@ -1690,7 +2508,26 @@
       <c r="J34">
         <v>8</v>
       </c>
-      <c r="O34" s="6"/>
+      <c r="K34">
+        <f>I34*VLOOKUP(D34,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>2.88</v>
+      </c>
+      <c r="L34" t="str">
+        <f>VLOOKUP(VLOOKUP(D34,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>ARGENTINA</v>
+      </c>
+      <c r="M34">
+        <f>I34-(I34*VLOOKUP(VLOOKUP(D34,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>45.12</v>
+      </c>
+      <c r="N34">
+        <f>IF(VLOOKUP(D34,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I34*VLOOKUP(VLOOKUP(D34,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="O34">
+        <f>IF(OR(VLOOKUP(D34,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D34,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D34,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D34,TABLAS!$E$4:$H$18,2,FALSE)="D"),I34*VLOOKUP(D34,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>2.88</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
@@ -1708,6 +2545,14 @@
       <c r="E35">
         <v>3</v>
       </c>
+      <c r="F35" t="str">
+        <f>VLOOKUP(E35,TABLAS!$A$4:$C$7,2)</f>
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G35">
+        <f>HLOOKUP(H35,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H35" t="s">
         <v>1</v>
       </c>
@@ -1717,7 +2562,26 @@
       <c r="J35">
         <v>650</v>
       </c>
-      <c r="O35" s="6"/>
+      <c r="K35">
+        <f>I35*VLOOKUP(D35,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="L35" t="str">
+        <f>VLOOKUP(VLOOKUP(D35,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M35">
+        <f>I35-(I35*VLOOKUP(VLOOKUP(D35,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>1.84</v>
+      </c>
+      <c r="N35">
+        <f>IF(VLOOKUP(D35,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I35*VLOOKUP(VLOOKUP(D35,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0.3</v>
+      </c>
+      <c r="O35">
+        <f>IF(OR(VLOOKUP(D35,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D35,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D35,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D35,TABLAS!$E$4:$H$18,2,FALSE)="D"),I35*VLOOKUP(D35,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -1735,6 +2599,14 @@
       <c r="E36">
         <v>3</v>
       </c>
+      <c r="F36" t="str">
+        <f>VLOOKUP(E36,TABLAS!$A$4:$C$7,2)</f>
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G36">
+        <f>HLOOKUP(H36,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H36" t="s">
         <v>1</v>
       </c>
@@ -1744,7 +2616,26 @@
       <c r="J36">
         <v>742</v>
       </c>
-      <c r="O36" s="6"/>
+      <c r="K36">
+        <f>I36*VLOOKUP(D36,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L36" t="str">
+        <f>VLOOKUP(VLOOKUP(D36,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M36">
+        <f>I36-(I36*VLOOKUP(VLOOKUP(D36,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>2.76</v>
+      </c>
+      <c r="N36">
+        <f>IF(VLOOKUP(D36,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I36*VLOOKUP(VLOOKUP(D36,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="O36">
+        <f>IF(OR(VLOOKUP(D36,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D36,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D36,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D36,TABLAS!$E$4:$H$18,2,FALSE)="D"),I36*VLOOKUP(D36,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -1762,6 +2653,14 @@
       <c r="E37">
         <v>3</v>
       </c>
+      <c r="F37" t="str">
+        <f>VLOOKUP(E37,TABLAS!$A$4:$C$7,2)</f>
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G37">
+        <f>HLOOKUP(H37,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H37" t="s">
         <v>1</v>
       </c>
@@ -1771,7 +2670,26 @@
       <c r="J37">
         <v>366</v>
       </c>
-      <c r="O37" s="6"/>
+      <c r="K37">
+        <f>I37*VLOOKUP(D37,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.2</v>
+      </c>
+      <c r="L37" t="str">
+        <f>VLOOKUP(VLOOKUP(D37,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M37">
+        <f>I37-(I37*VLOOKUP(VLOOKUP(D37,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>3.68</v>
+      </c>
+      <c r="N37">
+        <f>IF(VLOOKUP(D37,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I37*VLOOKUP(VLOOKUP(D37,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O37">
+        <f>IF(OR(VLOOKUP(D37,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D37,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D37,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D37,TABLAS!$E$4:$H$18,2,FALSE)="D"),I37*VLOOKUP(D37,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -1789,6 +2707,14 @@
       <c r="E38">
         <v>3</v>
       </c>
+      <c r="F38" t="str">
+        <f>VLOOKUP(E38,TABLAS!$A$4:$C$7,2)</f>
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G38">
+        <f>HLOOKUP(H38,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H38" t="s">
         <v>1</v>
       </c>
@@ -1798,7 +2724,26 @@
       <c r="J38">
         <v>451</v>
       </c>
-      <c r="O38" s="6"/>
+      <c r="K38">
+        <f>I38*VLOOKUP(D38,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="L38" t="str">
+        <f>VLOOKUP(VLOOKUP(D38,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M38">
+        <f>I38-(I38*VLOOKUP(VLOOKUP(D38,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N38">
+        <f>IF(VLOOKUP(D38,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I38*VLOOKUP(VLOOKUP(D38,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0.75</v>
+      </c>
+      <c r="O38">
+        <f>IF(OR(VLOOKUP(D38,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D38,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D38,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D38,TABLAS!$E$4:$H$18,2,FALSE)="D"),I38*VLOOKUP(D38,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -1816,6 +2761,14 @@
       <c r="E39">
         <v>3</v>
       </c>
+      <c r="F39" t="str">
+        <f>VLOOKUP(E39,TABLAS!$A$4:$C$7,2)</f>
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G39">
+        <f>HLOOKUP(H39,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H39" t="s">
         <v>1</v>
       </c>
@@ -1825,7 +2778,26 @@
       <c r="J39">
         <v>563</v>
       </c>
-      <c r="O39" s="6"/>
+      <c r="K39">
+        <f>I39*VLOOKUP(D39,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L39" t="str">
+        <f>VLOOKUP(VLOOKUP(D39,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M39">
+        <f>I39-(I39*VLOOKUP(VLOOKUP(D39,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>2.76</v>
+      </c>
+      <c r="N39">
+        <f>IF(VLOOKUP(D39,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I39*VLOOKUP(VLOOKUP(D39,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="O39">
+        <f>IF(OR(VLOOKUP(D39,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D39,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D39,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D39,TABLAS!$E$4:$H$18,2,FALSE)="D"),I39*VLOOKUP(D39,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -1843,6 +2815,14 @@
       <c r="E40">
         <v>3</v>
       </c>
+      <c r="F40" t="str">
+        <f>VLOOKUP(E40,TABLAS!$A$4:$C$7,2)</f>
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G40">
+        <f>HLOOKUP(H40,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H40" t="s">
         <v>1</v>
       </c>
@@ -1852,7 +2832,26 @@
       <c r="J40">
         <v>421</v>
       </c>
-      <c r="O40" s="6"/>
+      <c r="K40">
+        <f>I40*VLOOKUP(D40,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.2</v>
+      </c>
+      <c r="L40" t="str">
+        <f>VLOOKUP(VLOOKUP(D40,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M40">
+        <f>I40-(I40*VLOOKUP(VLOOKUP(D40,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>3.68</v>
+      </c>
+      <c r="N40">
+        <f>IF(VLOOKUP(D40,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I40*VLOOKUP(VLOOKUP(D40,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O40">
+        <f>IF(OR(VLOOKUP(D40,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D40,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D40,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D40,TABLAS!$E$4:$H$18,2,FALSE)="D"),I40*VLOOKUP(D40,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -1870,6 +2869,14 @@
       <c r="E41">
         <v>3</v>
       </c>
+      <c r="F41" t="str">
+        <f>VLOOKUP(E41,TABLAS!$A$4:$C$7,2)</f>
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G41">
+        <f>HLOOKUP(H41,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H41" t="s">
         <v>1</v>
       </c>
@@ -1879,7 +2886,26 @@
       <c r="J41">
         <v>257</v>
       </c>
-      <c r="O41" s="6"/>
+      <c r="K41">
+        <f>I41*VLOOKUP(D41,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="L41" t="str">
+        <f>VLOOKUP(VLOOKUP(D41,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M41">
+        <f>I41-(I41*VLOOKUP(VLOOKUP(D41,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N41">
+        <f>IF(VLOOKUP(D41,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I41*VLOOKUP(VLOOKUP(D41,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0.75</v>
+      </c>
+      <c r="O41">
+        <f>IF(OR(VLOOKUP(D41,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D41,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D41,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D41,TABLAS!$E$4:$H$18,2,FALSE)="D"),I41*VLOOKUP(D41,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -1897,6 +2923,14 @@
       <c r="E42">
         <v>3</v>
       </c>
+      <c r="F42" t="str">
+        <f>VLOOKUP(E42,TABLAS!$A$4:$C$7,2)</f>
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G42">
+        <f>HLOOKUP(H42,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H42" t="s">
         <v>1</v>
       </c>
@@ -1906,7 +2940,26 @@
       <c r="J42">
         <v>412</v>
       </c>
-      <c r="O42" s="6"/>
+      <c r="K42">
+        <f>I42*VLOOKUP(D42,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L42" t="str">
+        <f>VLOOKUP(VLOOKUP(D42,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M42">
+        <f>I42-(I42*VLOOKUP(VLOOKUP(D42,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>5.52</v>
+      </c>
+      <c r="N42">
+        <f>IF(VLOOKUP(D42,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I42*VLOOKUP(VLOOKUP(D42,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="O42">
+        <f>IF(OR(VLOOKUP(D42,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D42,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D42,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D42,TABLAS!$E$4:$H$18,2,FALSE)="D"),I42*VLOOKUP(D42,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -1924,6 +2977,14 @@
       <c r="E43">
         <v>3</v>
       </c>
+      <c r="F43" t="str">
+        <f>VLOOKUP(E43,TABLAS!$A$4:$C$7,2)</f>
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G43">
+        <f>HLOOKUP(H43,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H43" t="s">
         <v>1</v>
       </c>
@@ -1933,7 +2994,26 @@
       <c r="J43">
         <v>314</v>
       </c>
-      <c r="O43" s="6"/>
+      <c r="K43">
+        <f>I43*VLOOKUP(D43,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L43" t="str">
+        <f>VLOOKUP(VLOOKUP(D43,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M43">
+        <f>I43-(I43*VLOOKUP(VLOOKUP(D43,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>2.76</v>
+      </c>
+      <c r="N43">
+        <f>IF(VLOOKUP(D43,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I43*VLOOKUP(VLOOKUP(D43,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="O43">
+        <f>IF(OR(VLOOKUP(D43,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D43,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D43,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D43,TABLAS!$E$4:$H$18,2,FALSE)="D"),I43*VLOOKUP(D43,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -1951,6 +3031,14 @@
       <c r="E44">
         <v>3</v>
       </c>
+      <c r="F44" t="str">
+        <f>VLOOKUP(E44,TABLAS!$A$4:$C$7,2)</f>
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G44">
+        <f>HLOOKUP(H44,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H44" t="s">
         <v>1</v>
       </c>
@@ -1960,7 +3048,26 @@
       <c r="J44">
         <v>208</v>
       </c>
-      <c r="O44" s="6"/>
+      <c r="K44">
+        <f>I44*VLOOKUP(D44,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.2</v>
+      </c>
+      <c r="L44" t="str">
+        <f>VLOOKUP(VLOOKUP(D44,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M44">
+        <f>I44-(I44*VLOOKUP(VLOOKUP(D44,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>3.68</v>
+      </c>
+      <c r="N44">
+        <f>IF(VLOOKUP(D44,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I44*VLOOKUP(VLOOKUP(D44,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O44">
+        <f>IF(OR(VLOOKUP(D44,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D44,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D44,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D44,TABLAS!$E$4:$H$18,2,FALSE)="D"),I44*VLOOKUP(D44,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -1978,6 +3085,14 @@
       <c r="E45">
         <v>3</v>
       </c>
+      <c r="F45" t="str">
+        <f>VLOOKUP(E45,TABLAS!$A$4:$C$7,2)</f>
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G45">
+        <f>HLOOKUP(H45,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H45" t="s">
         <v>1</v>
       </c>
@@ -1987,7 +3102,26 @@
       <c r="J45">
         <v>547</v>
       </c>
-      <c r="O45" s="6"/>
+      <c r="K45">
+        <f>I45*VLOOKUP(D45,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="L45" t="str">
+        <f>VLOOKUP(VLOOKUP(D45,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M45">
+        <f>I45-(I45*VLOOKUP(VLOOKUP(D45,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N45">
+        <f>IF(VLOOKUP(D45,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I45*VLOOKUP(VLOOKUP(D45,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0.75</v>
+      </c>
+      <c r="O45">
+        <f>IF(OR(VLOOKUP(D45,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D45,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D45,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D45,TABLAS!$E$4:$H$18,2,FALSE)="D"),I45*VLOOKUP(D45,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -2005,6 +3139,14 @@
       <c r="E46">
         <v>3</v>
       </c>
+      <c r="F46" t="str">
+        <f>VLOOKUP(E46,TABLAS!$A$4:$C$7,2)</f>
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G46">
+        <f>HLOOKUP(H46,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H46" t="s">
         <v>1</v>
       </c>
@@ -2014,7 +3156,26 @@
       <c r="J46">
         <v>189</v>
       </c>
-      <c r="O46" s="6"/>
+      <c r="K46">
+        <f>I46*VLOOKUP(D46,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L46" t="str">
+        <f>VLOOKUP(VLOOKUP(D46,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M46">
+        <f>I46-(I46*VLOOKUP(VLOOKUP(D46,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>5.52</v>
+      </c>
+      <c r="N46">
+        <f>IF(VLOOKUP(D46,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I46*VLOOKUP(VLOOKUP(D46,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="O46">
+        <f>IF(OR(VLOOKUP(D46,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D46,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D46,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D46,TABLAS!$E$4:$H$18,2,FALSE)="D"),I46*VLOOKUP(D46,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -2032,6 +3193,14 @@
       <c r="E47">
         <v>1</v>
       </c>
+      <c r="F47" t="str">
+        <f>VLOOKUP(E47,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G47">
+        <f>HLOOKUP(H47,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H47" t="s">
         <v>1</v>
       </c>
@@ -2041,7 +3210,26 @@
       <c r="J47">
         <v>72</v>
       </c>
-      <c r="O47" s="6"/>
+      <c r="K47">
+        <f>I47*VLOOKUP(D47,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.44</v>
+      </c>
+      <c r="L47" t="str">
+        <f>VLOOKUP(VLOOKUP(D47,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>ARGENTINA</v>
+      </c>
+      <c r="M47">
+        <f>I47-(I47*VLOOKUP(VLOOKUP(D47,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="N47">
+        <f>IF(VLOOKUP(D47,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I47*VLOOKUP(VLOOKUP(D47,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O47">
+        <f>IF(OR(VLOOKUP(D47,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D47,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D47,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D47,TABLAS!$E$4:$H$18,2,FALSE)="D"),I47*VLOOKUP(D47,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0.44</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -2059,6 +3247,14 @@
       <c r="E48">
         <v>1</v>
       </c>
+      <c r="F48" t="str">
+        <f>VLOOKUP(E48,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G48">
+        <f>HLOOKUP(H48,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H48" t="s">
         <v>1</v>
       </c>
@@ -2068,7 +3264,26 @@
       <c r="J48">
         <v>45</v>
       </c>
-      <c r="O48" s="6"/>
+      <c r="K48">
+        <f>I48*VLOOKUP(D48,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.88</v>
+      </c>
+      <c r="L48" t="str">
+        <f>VLOOKUP(VLOOKUP(D48,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>ARGENTINA</v>
+      </c>
+      <c r="M48">
+        <f>I48-(I48*VLOOKUP(VLOOKUP(D48,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>19.579999999999998</v>
+      </c>
+      <c r="N48">
+        <f>IF(VLOOKUP(D48,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I48*VLOOKUP(VLOOKUP(D48,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O48">
+        <f>IF(OR(VLOOKUP(D48,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D48,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D48,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D48,TABLAS!$E$4:$H$18,2,FALSE)="D"),I48*VLOOKUP(D48,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0.88</v>
+      </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
@@ -2086,6 +3301,14 @@
       <c r="E49">
         <v>1</v>
       </c>
+      <c r="F49" t="str">
+        <f>VLOOKUP(E49,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G49">
+        <f>HLOOKUP(H49,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H49" t="s">
         <v>1</v>
       </c>
@@ -2095,7 +3318,26 @@
       <c r="J49">
         <v>39</v>
       </c>
-      <c r="O49" s="6"/>
+      <c r="K49">
+        <f>I49*VLOOKUP(D49,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>1.32</v>
+      </c>
+      <c r="L49" t="str">
+        <f>VLOOKUP(VLOOKUP(D49,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>ARGENTINA</v>
+      </c>
+      <c r="M49">
+        <f>I49-(I49*VLOOKUP(VLOOKUP(D49,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>29.37</v>
+      </c>
+      <c r="N49">
+        <f>IF(VLOOKUP(D49,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I49*VLOOKUP(VLOOKUP(D49,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="O49">
+        <f>IF(OR(VLOOKUP(D49,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D49,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D49,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D49,TABLAS!$E$4:$H$18,2,FALSE)="D"),I49*VLOOKUP(D49,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>1.32</v>
+      </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
@@ -2113,6 +3355,14 @@
       <c r="E50">
         <v>1</v>
       </c>
+      <c r="F50" t="str">
+        <f>VLOOKUP(E50,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G50">
+        <f>HLOOKUP(H50,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H50" t="s">
         <v>1</v>
       </c>
@@ -2122,7 +3372,26 @@
       <c r="J50">
         <v>2035</v>
       </c>
-      <c r="O50" s="6"/>
+      <c r="K50">
+        <f>I50*VLOOKUP(D50,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="L50" t="str">
+        <f>VLOOKUP(VLOOKUP(D50,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M50">
+        <f>I50-(I50*VLOOKUP(VLOOKUP(D50,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>4.8</v>
+      </c>
+      <c r="N50">
+        <f>IF(VLOOKUP(D50,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I50*VLOOKUP(VLOOKUP(D50,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f>IF(OR(VLOOKUP(D50,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D50,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D50,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D50,TABLAS!$E$4:$H$18,2,FALSE)="D"),I50*VLOOKUP(D50,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
@@ -2140,6 +3409,14 @@
       <c r="E51">
         <v>1</v>
       </c>
+      <c r="F51" t="str">
+        <f>VLOOKUP(E51,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G51">
+        <f>HLOOKUP(H51,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H51" t="s">
         <v>1</v>
       </c>
@@ -2149,7 +3426,26 @@
       <c r="J51">
         <v>3862</v>
       </c>
-      <c r="O51" s="6"/>
+      <c r="K51">
+        <f>I51*VLOOKUP(D51,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L51" t="str">
+        <f>VLOOKUP(VLOOKUP(D51,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M51">
+        <f>I51-(I51*VLOOKUP(VLOOKUP(D51,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>6.72</v>
+      </c>
+      <c r="N51">
+        <f>IF(VLOOKUP(D51,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I51*VLOOKUP(VLOOKUP(D51,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f>IF(OR(VLOOKUP(D51,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D51,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D51,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D51,TABLAS!$E$4:$H$18,2,FALSE)="D"),I51*VLOOKUP(D51,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
@@ -2167,6 +3463,14 @@
       <c r="E52">
         <v>1</v>
       </c>
+      <c r="F52" t="str">
+        <f>VLOOKUP(E52,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G52">
+        <f>HLOOKUP(H52,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H52" t="s">
         <v>1</v>
       </c>
@@ -2176,7 +3480,26 @@
       <c r="J52">
         <v>751</v>
       </c>
-      <c r="O52" s="6"/>
+      <c r="K52">
+        <f>I52*VLOOKUP(D52,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L52" t="str">
+        <f>VLOOKUP(VLOOKUP(D52,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M52">
+        <f>I52-(I52*VLOOKUP(VLOOKUP(D52,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>6.72</v>
+      </c>
+      <c r="N52">
+        <f>IF(VLOOKUP(D52,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I52*VLOOKUP(VLOOKUP(D52,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f>IF(OR(VLOOKUP(D52,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D52,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D52,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D52,TABLAS!$E$4:$H$18,2,FALSE)="D"),I52*VLOOKUP(D52,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
@@ -2194,6 +3517,14 @@
       <c r="E53">
         <v>1</v>
       </c>
+      <c r="F53" t="str">
+        <f>VLOOKUP(E53,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G53">
+        <f>HLOOKUP(H53,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H53" t="s">
         <v>1</v>
       </c>
@@ -2203,7 +3534,26 @@
       <c r="J53">
         <v>4130</v>
       </c>
-      <c r="O53" s="6"/>
+      <c r="K53">
+        <f>I53*VLOOKUP(D53,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.24</v>
+      </c>
+      <c r="L53" t="str">
+        <f>VLOOKUP(VLOOKUP(D53,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M53">
+        <f>I53-(I53*VLOOKUP(VLOOKUP(D53,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>7.4399999999999995</v>
+      </c>
+      <c r="N53">
+        <f>IF(VLOOKUP(D53,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I53*VLOOKUP(VLOOKUP(D53,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f>IF(OR(VLOOKUP(D53,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D53,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D53,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D53,TABLAS!$E$4:$H$18,2,FALSE)="D"),I53*VLOOKUP(D53,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
@@ -2221,6 +3571,14 @@
       <c r="E54">
         <v>1</v>
       </c>
+      <c r="F54" t="str">
+        <f>VLOOKUP(E54,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G54">
+        <f>HLOOKUP(H54,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H54" t="s">
         <v>1</v>
       </c>
@@ -2230,7 +3588,26 @@
       <c r="J54">
         <v>2309</v>
       </c>
-      <c r="O54" s="6"/>
+      <c r="K54">
+        <f>I54*VLOOKUP(D54,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.27</v>
+      </c>
+      <c r="L54" t="str">
+        <f>VLOOKUP(VLOOKUP(D54,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M54">
+        <f>I54-(I54*VLOOKUP(VLOOKUP(D54,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="N54">
+        <f>IF(VLOOKUP(D54,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I54*VLOOKUP(VLOOKUP(D54,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f>IF(OR(VLOOKUP(D54,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D54,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D54,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D54,TABLAS!$E$4:$H$18,2,FALSE)="D"),I54*VLOOKUP(D54,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
@@ -2248,6 +3625,14 @@
       <c r="E55">
         <v>1</v>
       </c>
+      <c r="F55" t="str">
+        <f>VLOOKUP(E55,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G55">
+        <f>HLOOKUP(H55,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H55" t="s">
         <v>1</v>
       </c>
@@ -2257,7 +3642,26 @@
       <c r="J55">
         <v>1690</v>
       </c>
-      <c r="O55" s="6"/>
+      <c r="K55">
+        <f>I55*VLOOKUP(D55,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="L55" t="str">
+        <f>VLOOKUP(VLOOKUP(D55,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M55">
+        <f>I55-(I55*VLOOKUP(VLOOKUP(D55,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>10.23</v>
+      </c>
+      <c r="N55">
+        <f>IF(VLOOKUP(D55,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I55*VLOOKUP(VLOOKUP(D55,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <f>IF(OR(VLOOKUP(D55,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D55,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D55,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D55,TABLAS!$E$4:$H$18,2,FALSE)="D"),I55*VLOOKUP(D55,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
@@ -2275,6 +3679,14 @@
       <c r="E56">
         <v>1</v>
       </c>
+      <c r="F56" t="str">
+        <f>VLOOKUP(E56,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G56">
+        <f>HLOOKUP(H56,TABLAS!$K$3:$N$4,2)</f>
+        <v>3</v>
+      </c>
       <c r="H56" t="s">
         <v>98</v>
       </c>
@@ -2284,7 +3696,26 @@
       <c r="J56">
         <v>25</v>
       </c>
-      <c r="O56" s="6"/>
+      <c r="K56">
+        <f>I56*VLOOKUP(D56,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>2.25</v>
+      </c>
+      <c r="L56" t="str">
+        <f>VLOOKUP(VLOOKUP(D56,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M56">
+        <f>I56-(I56*VLOOKUP(VLOOKUP(D56,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>41.85</v>
+      </c>
+      <c r="N56">
+        <f>IF(VLOOKUP(D56,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I56*VLOOKUP(VLOOKUP(D56,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <f>IF(OR(VLOOKUP(D56,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D56,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D56,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D56,TABLAS!$E$4:$H$18,2,FALSE)="D"),I56*VLOOKUP(D56,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
@@ -2302,6 +3733,14 @@
       <c r="E57">
         <v>1</v>
       </c>
+      <c r="F57" t="str">
+        <f>VLOOKUP(E57,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G57">
+        <f>HLOOKUP(H57,TABLAS!$K$3:$N$4,2)</f>
+        <v>3</v>
+      </c>
       <c r="H57" t="s">
         <v>98</v>
       </c>
@@ -2311,7 +3750,26 @@
       <c r="J57">
         <v>21</v>
       </c>
-      <c r="O57" s="6"/>
+      <c r="K57">
+        <f>I57*VLOOKUP(D57,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="L57" t="str">
+        <f>VLOOKUP(VLOOKUP(D57,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M57">
+        <f>I57-(I57*VLOOKUP(VLOOKUP(D57,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>35.340000000000003</v>
+      </c>
+      <c r="N57">
+        <f>IF(VLOOKUP(D57,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I57*VLOOKUP(VLOOKUP(D57,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <f>IF(OR(VLOOKUP(D57,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D57,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D57,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D57,TABLAS!$E$4:$H$18,2,FALSE)="D"),I57*VLOOKUP(D57,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
@@ -2329,6 +3787,14 @@
       <c r="E58">
         <v>1</v>
       </c>
+      <c r="F58" t="str">
+        <f>VLOOKUP(E58,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G58">
+        <f>HLOOKUP(H58,TABLAS!$K$3:$N$4,2)</f>
+        <v>3</v>
+      </c>
       <c r="H58" t="s">
         <v>98</v>
       </c>
@@ -2338,7 +3804,26 @@
       <c r="J58">
         <v>19</v>
       </c>
-      <c r="O58" s="6"/>
+      <c r="K58">
+        <f>I58*VLOOKUP(D58,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="L58" t="str">
+        <f>VLOOKUP(VLOOKUP(D58,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M58">
+        <f>I58-(I58*VLOOKUP(VLOOKUP(D58,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>26.97</v>
+      </c>
+      <c r="N58">
+        <f>IF(VLOOKUP(D58,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I58*VLOOKUP(VLOOKUP(D58,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f>IF(OR(VLOOKUP(D58,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D58,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D58,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D58,TABLAS!$E$4:$H$18,2,FALSE)="D"),I58*VLOOKUP(D58,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
@@ -2356,6 +3841,14 @@
       <c r="E59">
         <v>1</v>
       </c>
+      <c r="F59" t="str">
+        <f>VLOOKUP(E59,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G59">
+        <f>HLOOKUP(H59,TABLAS!$K$3:$N$4,2)</f>
+        <v>3</v>
+      </c>
       <c r="H59" t="s">
         <v>98</v>
       </c>
@@ -2365,7 +3858,26 @@
       <c r="J59">
         <v>15</v>
       </c>
-      <c r="O59" s="6"/>
+      <c r="K59">
+        <f>I59*VLOOKUP(D59,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="L59" t="str">
+        <f>VLOOKUP(VLOOKUP(D59,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M59">
+        <f>I59-(I59*VLOOKUP(VLOOKUP(D59,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>17.670000000000002</v>
+      </c>
+      <c r="N59">
+        <f>IF(VLOOKUP(D59,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I59*VLOOKUP(VLOOKUP(D59,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <f>IF(OR(VLOOKUP(D59,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D59,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D59,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D59,TABLAS!$E$4:$H$18,2,FALSE)="D"),I59*VLOOKUP(D59,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
@@ -2383,6 +3895,14 @@
       <c r="E60">
         <v>1</v>
       </c>
+      <c r="F60" t="str">
+        <f>VLOOKUP(E60,TABLAS!$A$4:$C$7,2)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G60">
+        <f>HLOOKUP(H60,TABLAS!$K$3:$N$4,2)</f>
+        <v>3</v>
+      </c>
       <c r="H60" t="s">
         <v>98</v>
       </c>
@@ -2392,7 +3912,26 @@
       <c r="J60">
         <v>9</v>
       </c>
-      <c r="O60" s="6"/>
+      <c r="K60">
+        <f>I60*VLOOKUP(D60,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L60" t="str">
+        <f>VLOOKUP(VLOOKUP(D60,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M60">
+        <f>I60-(I60*VLOOKUP(VLOOKUP(D60,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>13.95</v>
+      </c>
+      <c r="N60">
+        <f>IF(VLOOKUP(D60,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I60*VLOOKUP(VLOOKUP(D60,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <f>IF(OR(VLOOKUP(D60,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D60,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D60,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D60,TABLAS!$E$4:$H$18,2,FALSE)="D"),I60*VLOOKUP(D60,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
@@ -2410,6 +3949,14 @@
       <c r="E61">
         <v>2</v>
       </c>
+      <c r="F61" t="str">
+        <f>VLOOKUP(E61,TABLAS!$A$4:$C$7,2)</f>
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G61">
+        <f>HLOOKUP(H61,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H61" t="s">
         <v>1</v>
       </c>
@@ -2419,7 +3966,26 @@
       <c r="J61">
         <v>8</v>
       </c>
-      <c r="O61" s="6"/>
+      <c r="K61">
+        <f>I61*VLOOKUP(D61,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>9.84</v>
+      </c>
+      <c r="L61" t="str">
+        <f>VLOOKUP(VLOOKUP(D61,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M61">
+        <f>I61-(I61*VLOOKUP(VLOOKUP(D61,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>154.16</v>
+      </c>
+      <c r="N61">
+        <f>IF(VLOOKUP(D61,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I61*VLOOKUP(VLOOKUP(D61,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <f>IF(OR(VLOOKUP(D61,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D61,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D61,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D61,TABLAS!$E$4:$H$18,2,FALSE)="D"),I61*VLOOKUP(D61,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>9.84</v>
+      </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -2437,6 +4003,14 @@
       <c r="E62">
         <v>2</v>
       </c>
+      <c r="F62" t="str">
+        <f>VLOOKUP(E62,TABLAS!$A$4:$C$7,2)</f>
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G62">
+        <f>HLOOKUP(H62,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H62" t="s">
         <v>1</v>
       </c>
@@ -2446,7 +4020,26 @@
       <c r="J62">
         <v>9</v>
       </c>
-      <c r="O62" s="6"/>
+      <c r="K62">
+        <f>I62*VLOOKUP(D62,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>37.92</v>
+      </c>
+      <c r="L62" t="str">
+        <f>VLOOKUP(VLOOKUP(D62,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M62">
+        <f>I62-(I62*VLOOKUP(VLOOKUP(D62,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>594.08000000000004</v>
+      </c>
+      <c r="N62">
+        <f>IF(VLOOKUP(D62,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I62*VLOOKUP(VLOOKUP(D62,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f>IF(OR(VLOOKUP(D62,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D62,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D62,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D62,TABLAS!$E$4:$H$18,2,FALSE)="D"),I62*VLOOKUP(D62,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>37.92</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -2464,6 +4057,14 @@
       <c r="E63">
         <v>2</v>
       </c>
+      <c r="F63" t="str">
+        <f>VLOOKUP(E63,TABLAS!$A$4:$C$7,2)</f>
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G63">
+        <f>HLOOKUP(H63,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H63" t="s">
         <v>1</v>
       </c>
@@ -2473,7 +4074,26 @@
       <c r="J63">
         <v>11</v>
       </c>
-      <c r="O63" s="6"/>
+      <c r="K63">
+        <f>I63*VLOOKUP(D63,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>4.4399999999999995</v>
+      </c>
+      <c r="L63" t="str">
+        <f>VLOOKUP(VLOOKUP(D63,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M63">
+        <f>I63-(I63*VLOOKUP(VLOOKUP(D63,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>69.56</v>
+      </c>
+      <c r="N63">
+        <f>IF(VLOOKUP(D63,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I63*VLOOKUP(VLOOKUP(D63,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <f>IF(OR(VLOOKUP(D63,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D63,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D63,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D63,TABLAS!$E$4:$H$18,2,FALSE)="D"),I63*VLOOKUP(D63,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>4.4399999999999995</v>
+      </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -2491,6 +4111,14 @@
       <c r="E64">
         <v>2</v>
       </c>
+      <c r="F64" t="str">
+        <f>VLOOKUP(E64,TABLAS!$A$4:$C$7,2)</f>
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G64">
+        <f>HLOOKUP(H64,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H64" t="s">
         <v>1</v>
       </c>
@@ -2500,7 +4128,26 @@
       <c r="J64">
         <v>10</v>
       </c>
-      <c r="O64" s="6"/>
+      <c r="K64">
+        <f>I64*VLOOKUP(D64,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>21.3</v>
+      </c>
+      <c r="L64" t="str">
+        <f>VLOOKUP(VLOOKUP(D64,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M64">
+        <f>I64-(I64*VLOOKUP(VLOOKUP(D64,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>333.7</v>
+      </c>
+      <c r="N64">
+        <f>IF(VLOOKUP(D64,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I64*VLOOKUP(VLOOKUP(D64,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <f>IF(OR(VLOOKUP(D64,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D64,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D64,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D64,TABLAS!$E$4:$H$18,2,FALSE)="D"),I64*VLOOKUP(D64,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>21.3</v>
+      </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65">
@@ -2518,6 +4165,14 @@
       <c r="E65">
         <v>2</v>
       </c>
+      <c r="F65" t="str">
+        <f>VLOOKUP(E65,TABLAS!$A$4:$C$7,2)</f>
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G65">
+        <f>HLOOKUP(H65,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H65" t="s">
         <v>1</v>
       </c>
@@ -2527,7 +4182,26 @@
       <c r="J65">
         <v>9</v>
       </c>
-      <c r="O65" s="6"/>
+      <c r="K65">
+        <f>I65*VLOOKUP(D65,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>57.78</v>
+      </c>
+      <c r="L65" t="str">
+        <f>VLOOKUP(VLOOKUP(D65,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="M65">
+        <f>I65-(I65*VLOOKUP(VLOOKUP(D65,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>905.22</v>
+      </c>
+      <c r="N65">
+        <f>IF(VLOOKUP(D65,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I65*VLOOKUP(VLOOKUP(D65,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <f>IF(OR(VLOOKUP(D65,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D65,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D65,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D65,TABLAS!$E$4:$H$18,2,FALSE)="D"),I65*VLOOKUP(D65,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>57.78</v>
+      </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -2545,6 +4219,14 @@
       <c r="E66">
         <v>2</v>
       </c>
+      <c r="F66" t="str">
+        <f>VLOOKUP(E66,TABLAS!$A$4:$C$7,2)</f>
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G66">
+        <f>HLOOKUP(H66,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H66" t="s">
         <v>1</v>
       </c>
@@ -2554,7 +4236,26 @@
       <c r="J66">
         <v>7</v>
       </c>
-      <c r="O66" s="6"/>
+      <c r="K66">
+        <f>I66*VLOOKUP(D66,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.37</v>
+      </c>
+      <c r="L66" t="str">
+        <f>VLOOKUP(VLOOKUP(D66,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M66">
+        <f>I66-(I66*VLOOKUP(VLOOKUP(D66,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>34.78</v>
+      </c>
+      <c r="N66">
+        <f>IF(VLOOKUP(D66,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I66*VLOOKUP(VLOOKUP(D66,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>5.55</v>
+      </c>
+      <c r="O66">
+        <f>IF(OR(VLOOKUP(D66,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D66,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D66,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D66,TABLAS!$E$4:$H$18,2,FALSE)="D"),I66*VLOOKUP(D66,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67">
@@ -2572,6 +4273,14 @@
       <c r="E67">
         <v>2</v>
       </c>
+      <c r="F67" t="str">
+        <f>VLOOKUP(E67,TABLAS!$A$4:$C$7,2)</f>
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G67">
+        <f>HLOOKUP(H67,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H67" t="s">
         <v>1</v>
       </c>
@@ -2581,7 +4290,26 @@
       <c r="J67">
         <v>11</v>
       </c>
-      <c r="O67" s="6"/>
+      <c r="K67">
+        <f>I67*VLOOKUP(D67,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>1.57</v>
+      </c>
+      <c r="L67" t="str">
+        <f>VLOOKUP(VLOOKUP(D67,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M67">
+        <f>I67-(I67*VLOOKUP(VLOOKUP(D67,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>147.58000000000001</v>
+      </c>
+      <c r="N67">
+        <f>IF(VLOOKUP(D67,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I67*VLOOKUP(VLOOKUP(D67,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>23.55</v>
+      </c>
+      <c r="O67">
+        <f>IF(OR(VLOOKUP(D67,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D67,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D67,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D67,TABLAS!$E$4:$H$18,2,FALSE)="D"),I67*VLOOKUP(D67,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68">
@@ -2599,6 +4327,14 @@
       <c r="E68">
         <v>2</v>
       </c>
+      <c r="F68" t="str">
+        <f>VLOOKUP(E68,TABLAS!$A$4:$C$7,2)</f>
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G68">
+        <f>HLOOKUP(H68,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H68" t="s">
         <v>1</v>
       </c>
@@ -2608,7 +4344,26 @@
       <c r="J68">
         <v>13</v>
       </c>
-      <c r="O68" s="6"/>
+      <c r="K68">
+        <f>I68*VLOOKUP(D68,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>5.8100000000000005</v>
+      </c>
+      <c r="L68" t="str">
+        <f>VLOOKUP(VLOOKUP(D68,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M68">
+        <f>I68-(I68*VLOOKUP(VLOOKUP(D68,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>546.14</v>
+      </c>
+      <c r="N68">
+        <f>IF(VLOOKUP(D68,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I68*VLOOKUP(VLOOKUP(D68,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>87.149999999999991</v>
+      </c>
+      <c r="O68">
+        <f>IF(OR(VLOOKUP(D68,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D68,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D68,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D68,TABLAS!$E$4:$H$18,2,FALSE)="D"),I68*VLOOKUP(D68,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69">
@@ -2626,6 +4381,14 @@
       <c r="E69">
         <v>2</v>
       </c>
+      <c r="F69" t="str">
+        <f>VLOOKUP(E69,TABLAS!$A$4:$C$7,2)</f>
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G69">
+        <f>HLOOKUP(H69,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H69" t="s">
         <v>1</v>
       </c>
@@ -2635,7 +4398,26 @@
       <c r="J69">
         <v>7</v>
       </c>
-      <c r="O69" s="6"/>
+      <c r="K69">
+        <f>I69*VLOOKUP(D69,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="L69" t="str">
+        <f>VLOOKUP(VLOOKUP(D69,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M69">
+        <f>I69-(I69*VLOOKUP(VLOOKUP(D69,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>64.86</v>
+      </c>
+      <c r="N69">
+        <f>IF(VLOOKUP(D69,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I69*VLOOKUP(VLOOKUP(D69,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>10.35</v>
+      </c>
+      <c r="O69">
+        <f>IF(OR(VLOOKUP(D69,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D69,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D69,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D69,TABLAS!$E$4:$H$18,2,FALSE)="D"),I69*VLOOKUP(D69,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70">
@@ -2653,6 +4435,14 @@
       <c r="E70">
         <v>2</v>
       </c>
+      <c r="F70" t="str">
+        <f>VLOOKUP(E70,TABLAS!$A$4:$C$7,2)</f>
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G70">
+        <f>HLOOKUP(H70,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H70" t="s">
         <v>1</v>
       </c>
@@ -2662,7 +4452,26 @@
       <c r="J70">
         <v>9</v>
       </c>
-      <c r="O70" s="6"/>
+      <c r="K70">
+        <f>I70*VLOOKUP(D70,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>3.48</v>
+      </c>
+      <c r="L70" t="str">
+        <f>VLOOKUP(VLOOKUP(D70,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M70">
+        <f>I70-(I70*VLOOKUP(VLOOKUP(D70,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>327.12</v>
+      </c>
+      <c r="N70">
+        <f>IF(VLOOKUP(D70,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I70*VLOOKUP(VLOOKUP(D70,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>52.199999999999996</v>
+      </c>
+      <c r="O70">
+        <f>IF(OR(VLOOKUP(D70,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D70,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D70,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D70,TABLAS!$E$4:$H$18,2,FALSE)="D"),I70*VLOOKUP(D70,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71">
@@ -2680,6 +4489,14 @@
       <c r="E71">
         <v>2</v>
       </c>
+      <c r="F71" t="str">
+        <f>VLOOKUP(E71,TABLAS!$A$4:$C$7,2)</f>
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G71">
+        <f>HLOOKUP(H71,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H71" t="s">
         <v>1</v>
       </c>
@@ -2689,7 +4506,26 @@
       <c r="J71">
         <v>10</v>
       </c>
-      <c r="O71" s="6"/>
+      <c r="K71">
+        <f>I71*VLOOKUP(D71,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>9.08</v>
+      </c>
+      <c r="L71" t="str">
+        <f>VLOOKUP(VLOOKUP(D71,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M71">
+        <f>I71-(I71*VLOOKUP(VLOOKUP(D71,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>853.52</v>
+      </c>
+      <c r="N71">
+        <f>IF(VLOOKUP(D71,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I71*VLOOKUP(VLOOKUP(D71,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>136.19999999999999</v>
+      </c>
+      <c r="O71">
+        <f>IF(OR(VLOOKUP(D71,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D71,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D71,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D71,TABLAS!$E$4:$H$18,2,FALSE)="D"),I71*VLOOKUP(D71,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72">
@@ -2707,6 +4543,14 @@
       <c r="E72">
         <v>3</v>
       </c>
+      <c r="F72" t="str">
+        <f>VLOOKUP(E72,TABLAS!$A$4:$C$7,2)</f>
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G72">
+        <f>HLOOKUP(H72,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H72" t="s">
         <v>1</v>
       </c>
@@ -2716,7 +4560,26 @@
       <c r="J72">
         <v>60</v>
       </c>
-      <c r="O72" s="6"/>
+      <c r="K72">
+        <f>I72*VLOOKUP(D72,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="L72" t="str">
+        <f>VLOOKUP(VLOOKUP(D72,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M72">
+        <f>I72-(I72*VLOOKUP(VLOOKUP(D72,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>7.36</v>
+      </c>
+      <c r="N72">
+        <f>IF(VLOOKUP(D72,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I72*VLOOKUP(VLOOKUP(D72,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="O72">
+        <f>IF(OR(VLOOKUP(D72,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D72,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D72,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D72,TABLAS!$E$4:$H$18,2,FALSE)="D"),I72*VLOOKUP(D72,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73">
@@ -2734,6 +4597,14 @@
       <c r="E73">
         <v>3</v>
       </c>
+      <c r="F73" t="str">
+        <f>VLOOKUP(E73,TABLAS!$A$4:$C$7,2)</f>
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G73">
+        <f>HLOOKUP(H73,TABLAS!$K$3:$N$4,2)</f>
+        <v>4</v>
+      </c>
       <c r="H73" t="s">
         <v>1</v>
       </c>
@@ -2743,7 +4614,26 @@
       <c r="J73">
         <v>70</v>
       </c>
-      <c r="O73" s="6"/>
+      <c r="K73">
+        <f>I73*VLOOKUP(D73,TABLAS!$E$4:$H$18,4,FALSE)</f>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="L73" t="str">
+        <f>VLOOKUP(VLOOKUP(D73,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,2)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M73">
+        <f>I73-(I73*VLOOKUP(VLOOKUP(D73,TABLAS!$E$4:$H$18,2,FALSE),CATEGORIAS!$A$4:$B$8,2,FALSE))</f>
+        <v>7.82</v>
+      </c>
+      <c r="N73">
+        <f>IF(VLOOKUP(D73,TABLAS!$E$4:$H$18,3,FALSE)=1,0,I73*VLOOKUP(VLOOKUP(D73,TABLAS!$E$4:$H$18,3,FALSE),PROCEDENCIA!$A$4:$C$6,3,FALSE))</f>
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="O73">
+        <f>IF(OR(VLOOKUP(D73,TABLAS!$E$4:$H$18,3,FALSE)=1,VLOOKUP(D73,TABLAS!$E$4:$H$18,3,FALSE)=2),IF(OR(VLOOKUP(D73,TABLAS!$E$4:$H$18,2,FALSE)="E",VLOOKUP(D73,TABLAS!$E$4:$H$18,2,FALSE)="D"),I73*VLOOKUP(D73,TABLAS!$E$4:$H$18,4,FALSE),0),0)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -2757,7 +4647,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3166,7 +5056,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A4" sqref="A4:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
